--- a/data/trans_bre/P16A98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A98-Edad-trans_bre.xlsx
@@ -773,7 +773,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,0</t>
+          <t>-1,52; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,0</t>
+          <t>-1,09; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,58</t>
+          <t>-0,6; 2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,45</t>
+          <t>-0,84; 6,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,96</t>
+          <t>-0,74; 3,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 649,69</t>
+          <t>-43,3; 684,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 23,83</t>
+          <t>5,59; 24,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 11,16</t>
+          <t>-0,24; 10,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,16; 1570,39</t>
+          <t>47,11; 1638,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 1453,17</t>
+          <t>-60,15; 1618,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 9,99</t>
+          <t>-2,37; 9,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,52; 32,98</t>
+          <t>-0,03; 31,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 12,5</t>
+          <t>-9,0; 13,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 146,48</t>
+          <t>-0,97; 148,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 397,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,57</t>
+          <t>-0,11; 0,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,14</t>
+          <t>2,0; 5,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,47</t>
+          <t>-0,26; 1,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1342,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>69,88; 297,83</t>
+          <t>80,25; 290,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 294,02</t>
+          <t>-34,18; 324,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P16A98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A98-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,0</t>
+          <t>-1,35; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,0</t>
+          <t>-1,21; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,0</t>
+          <t>-1,01; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,62</t>
+          <t>-0,58; 2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 6,26</t>
+          <t>-0,92; 6,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 3,25</t>
+          <t>-0,58; 2,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 684,77</t>
+          <t>-43,32; 589,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 24,44</t>
+          <t>5,3; 23,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 10,45</t>
+          <t>-0,28; 10,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,11; 1638,6</t>
+          <t>46,04; 1667,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 1618,07</t>
+          <t>-60,83; 1406,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 9,87</t>
+          <t>-3,15; 9,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 31,56</t>
+          <t>-1,27; 32,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 13,91</t>
+          <t>-8,35; 12,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 148,25</t>
+          <t>-3,88; 149,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 345,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,58</t>
+          <t>-0,11; 0,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,16</t>
+          <t>1,78; 5,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,41</t>
+          <t>-0,18; 1,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1342,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>80,25; 290,74</t>
+          <t>61,62; 287,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 324,73</t>
+          <t>-23,63; 280,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
